--- a/src/test/resources/testData/BankManagerSuite.xlsx
+++ b/src/test/resources/testData/BankManagerSuite.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\IdeaProjects\Project02DataDrivenFramework2\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E9E52D-0E7F-4B0E-9702-5B5384930E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77255AB6-3FE2-4B44-806F-4CE6D6AE28C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{5D41E4F6-9F31-4361-8E5D-394ACE6B9544}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="40">
   <si>
     <t>TestCases</t>
   </si>
@@ -139,16 +139,41 @@
   </si>
   <si>
     <t>Pound</t>
+  </si>
+  <si>
+    <t>Rahul11</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>BY212016</t>
+  </si>
+  <si>
+    <t>Rahul12</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>BY212017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -534,10 +559,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D308E3E-DEC2-4C54-AC36-053E7B1AFE84}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -739,53 +764,59 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D13" s="1"/>
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
+      <c r="D15" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -793,16 +824,45 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
         <v>32</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>33</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D21" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/test/resources/testData/BankManagerSuite.xlsx
+++ b/src/test/resources/testData/BankManagerSuite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\IdeaProjects\Project02DataDrivenFramework2\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77255AB6-3FE2-4B44-806F-4CE6D6AE28C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC639955-C034-4FD4-89CC-6F55B4B0B04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{5D41E4F6-9F31-4361-8E5D-394ACE6B9544}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
   <si>
     <t>TestCases</t>
   </si>
@@ -148,15 +148,6 @@
   </si>
   <si>
     <t>BY212016</t>
-  </si>
-  <si>
-    <t>Rahul12</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>BY212017</t>
   </si>
 </sst>
 </file>
@@ -559,10 +550,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D308E3E-DEC2-4C54-AC36-053E7B1AFE84}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -781,42 +772,39 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D15" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -824,13 +812,13 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -838,26 +826,12 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
         <v>19</v>
       </c>
     </row>

--- a/src/test/resources/testData/BankManagerSuite.xlsx
+++ b/src/test/resources/testData/BankManagerSuite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\IdeaProjects\Project02DataDrivenFramework2\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC639955-C034-4FD4-89CC-6F55B4B0B04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121A6F2D-7FEB-44C5-B445-F2C0FAC4B0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{5D41E4F6-9F31-4361-8E5D-394ACE6B9544}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="40">
   <si>
     <t>TestCases</t>
   </si>
@@ -148,6 +148,15 @@
   </si>
   <si>
     <t>BY212016</t>
+  </si>
+  <si>
+    <t>Rahul12</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>BY212017</t>
   </si>
 </sst>
 </file>
@@ -550,10 +559,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D308E3E-DEC2-4C54-AC36-053E7B1AFE84}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -772,39 +781,42 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D15" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -812,13 +824,13 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -826,12 +838,26 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
         <v>32</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>33</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>19</v>
       </c>
     </row>

--- a/src/test/resources/testData/BankManagerSuite.xlsx
+++ b/src/test/resources/testData/BankManagerSuite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\IdeaProjects\Project02DataDrivenFramework2\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121A6F2D-7FEB-44C5-B445-F2C0FAC4B0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB1484A-6E48-4B5E-950C-E169E1D0B19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{5D41E4F6-9F31-4361-8E5D-394ACE6B9544}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
   <si>
     <t>TestCases</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Rahul8</t>
   </si>
   <si>
-    <t>Rahul10</t>
-  </si>
-  <si>
     <t>Raman9</t>
   </si>
   <si>
@@ -139,24 +136,6 @@
   </si>
   <si>
     <t>Pound</t>
-  </si>
-  <si>
-    <t>Rahul11</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>BY212016</t>
-  </si>
-  <si>
-    <t>Rahul12</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>BY212017</t>
   </si>
 </sst>
 </file>
@@ -559,10 +538,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D308E3E-DEC2-4C54-AC36-053E7B1AFE84}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -726,7 +705,7 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -734,7 +713,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -747,117 +726,66 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
+      <c r="D12" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D15" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
         <v>19</v>
       </c>
     </row>

--- a/src/test/resources/testData/BankManagerSuite.xlsx
+++ b/src/test/resources/testData/BankManagerSuite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\IdeaProjects\Project02DataDrivenFramework2\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB1484A-6E48-4B5E-950C-E169E1D0B19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E3DDE9-818D-4332-B2CE-FD60FCACF7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{5D41E4F6-9F31-4361-8E5D-394ACE6B9544}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="42">
   <si>
     <t>TestCases</t>
   </si>
@@ -136,6 +136,33 @@
   </si>
   <si>
     <t>Pound</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Siarhei1</t>
+  </si>
+  <si>
+    <t>Siarhei2</t>
+  </si>
+  <si>
+    <t>Siarhei3</t>
+  </si>
+  <si>
+    <t>BY212003</t>
+  </si>
+  <si>
+    <t>BY212004</t>
+  </si>
+  <si>
+    <t>BY212005</t>
   </si>
 </sst>
 </file>
@@ -538,10 +565,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D308E3E-DEC2-4C54-AC36-053E7B1AFE84}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E12" sqref="E12:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -726,66 +753,117 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D12" s="1"/>
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
+      <c r="D15" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
         <v>31</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C21" t="s">
         <v>32</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D21" t="s">
         <v>19</v>
       </c>
     </row>
